--- a/Work/ファイル整理ツリー.xlsx
+++ b/Work/ファイル整理ツリー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reiko\Desktop\Sakura\pepe\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-U2OC2JH\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AEC8D1-1307-4EE4-8F73-BB66A27C3002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB93FCEE-59FB-482D-B370-CC27E907F958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="799" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
+    <workbookView xWindow="3165" yWindow="0" windowWidth="16050" windowHeight="10920" tabRatio="799" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>Contoroller</t>
     <phoneticPr fontId="1"/>
@@ -342,6 +342,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -619,8 +623,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3990340" y="3270250"/>
-          <a:ext cx="1380490" cy="859155"/>
+          <a:off x="4142740" y="3403600"/>
+          <a:ext cx="1431290" cy="897255"/>
           <a:chOff x="129607" y="259369"/>
           <a:chExt cx="1304925" cy="638175"/>
         </a:xfrm>
@@ -905,8 +909,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="882015" y="2983865"/>
-          <a:ext cx="57150" cy="838200"/>
+          <a:off x="907415" y="3107690"/>
+          <a:ext cx="57150" cy="866775"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="57150" cy="1095375"/>
         </a:xfrm>
@@ -1282,8 +1286,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1062990" y="1911350"/>
-          <a:ext cx="1304925" cy="685800"/>
+          <a:off x="1088390" y="1987550"/>
+          <a:ext cx="1355725" cy="714375"/>
           <a:chOff x="-19050" y="76200"/>
           <a:chExt cx="1304925" cy="685800"/>
         </a:xfrm>
@@ -2366,8 +2370,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="558165" y="3201670"/>
-          <a:ext cx="4156076" cy="1165860"/>
+          <a:off x="558165" y="3335020"/>
+          <a:ext cx="4333876" cy="1213485"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="4156563" cy="1165860"/>
         </a:xfrm>
@@ -3042,8 +3046,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3637280" y="2837815"/>
-          <a:ext cx="393700" cy="110168"/>
+          <a:off x="3764280" y="2952115"/>
+          <a:ext cx="419100" cy="110168"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="393739" cy="110168"/>
         </a:xfrm>
@@ -3153,8 +3157,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2684145" y="1890395"/>
-          <a:ext cx="1381125" cy="859155"/>
+          <a:off x="2785745" y="1966595"/>
+          <a:ext cx="1431925" cy="897255"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1381125" cy="859764"/>
         </a:xfrm>
@@ -3434,8 +3438,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="513715" y="1593215"/>
-          <a:ext cx="1304925" cy="704850"/>
+          <a:off x="513715" y="1650365"/>
+          <a:ext cx="1355725" cy="742950"/>
           <a:chOff x="0" y="2640"/>
           <a:chExt cx="1304925" cy="705080"/>
         </a:xfrm>
@@ -3646,7 +3650,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5344795" y="2804795"/>
+          <a:off x="5547995" y="2919095"/>
           <a:ext cx="305435" cy="99152"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="786099" cy="99152"/>
@@ -4086,8 +4090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4757420" y="2100580"/>
-          <a:ext cx="1457325" cy="638175"/>
+          <a:off x="4935220" y="2186305"/>
+          <a:ext cx="1508125" cy="657225"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1457325" cy="638175"/>
         </a:xfrm>
@@ -4426,8 +4430,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1619885" y="2748280"/>
-          <a:ext cx="393700" cy="110168"/>
+          <a:off x="1670685" y="2862580"/>
+          <a:ext cx="419100" cy="110168"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="393739" cy="110168"/>
         </a:xfrm>
@@ -4655,8 +4659,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1480185" y="5562600"/>
-          <a:ext cx="617855" cy="99152"/>
+          <a:off x="1530985" y="5791200"/>
+          <a:ext cx="643255" cy="99152"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="618380" cy="99152"/>
         </a:xfrm>
@@ -5468,8 +5472,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5151120" y="1780540"/>
-          <a:ext cx="1572894" cy="2044065"/>
+          <a:off x="5328920" y="1847215"/>
+          <a:ext cx="1649094" cy="2129790"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1573339" cy="2044282"/>
         </a:xfrm>
@@ -7943,8 +7947,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5149215" y="5909945"/>
-          <a:ext cx="1572894" cy="2044065"/>
+          <a:off x="5327015" y="6148070"/>
+          <a:ext cx="1649094" cy="2129790"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1573339" cy="2044282"/>
         </a:xfrm>
@@ -9090,8 +9094,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1670050" y="2422525"/>
-          <a:ext cx="430530" cy="99060"/>
+          <a:off x="1720850" y="2517775"/>
+          <a:ext cx="455930" cy="108585"/>
           <a:chOff x="203353" y="0"/>
           <a:chExt cx="430624" cy="99060"/>
         </a:xfrm>
@@ -9201,8 +9205,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4135120" y="2421255"/>
-          <a:ext cx="430530" cy="99060"/>
+          <a:off x="4287520" y="2516505"/>
+          <a:ext cx="430530" cy="108585"/>
           <a:chOff x="203353" y="0"/>
           <a:chExt cx="430624" cy="99060"/>
         </a:xfrm>
@@ -10933,8 +10937,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="979805" y="2742565"/>
-          <a:ext cx="2456179" cy="1883410"/>
+          <a:off x="1005205" y="2847340"/>
+          <a:ext cx="2557779" cy="1969135"/>
           <a:chOff x="0" y="-1"/>
           <a:chExt cx="2493306" cy="1484389"/>
         </a:xfrm>
@@ -11486,8 +11490,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="4773930"/>
-          <a:ext cx="6285227" cy="2189804"/>
+          <a:off x="0" y="4964430"/>
+          <a:ext cx="6513827" cy="2285054"/>
           <a:chOff x="-154244" y="0"/>
           <a:chExt cx="6286117" cy="2189804"/>
         </a:xfrm>
@@ -13099,8 +13103,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1905" y="558214"/>
-          <a:ext cx="6530976" cy="7488989"/>
+          <a:off x="1905" y="577264"/>
+          <a:ext cx="6759576" cy="7803314"/>
           <a:chOff x="0" y="341523"/>
           <a:chExt cx="6532138" cy="7488989"/>
         </a:xfrm>
@@ -18327,8 +18331,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5763260" y="2385060"/>
-          <a:ext cx="123372" cy="226695"/>
+          <a:off x="5966460" y="2480310"/>
+          <a:ext cx="123372" cy="236220"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="123372" cy="226785"/>
         </a:xfrm>
@@ -19600,8 +19604,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5640705" y="1735455"/>
-          <a:ext cx="123372" cy="226695"/>
+          <a:off x="5843905" y="1802130"/>
+          <a:ext cx="123372" cy="236220"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="123372" cy="226785"/>
         </a:xfrm>
@@ -20129,22 +20133,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805AC35-603E-4391-87A6-FC4DA97BFC6E}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.08203125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.9140625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>46</v>
@@ -20168,7 +20172,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -20190,7 +20194,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -20204,7 +20208,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -20216,7 +20220,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -20238,7 +20242,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -20252,7 +20256,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -20264,7 +20268,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -20274,7 +20278,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -20298,7 +20302,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -20314,7 +20318,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -20326,7 +20330,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -20338,7 +20342,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -20360,7 +20364,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -20372,7 +20376,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -20382,7 +20386,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -20392,7 +20396,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -20402,7 +20406,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -20424,7 +20428,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -20438,7 +20442,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -20450,7 +20454,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>6</v>
       </c>
@@ -20472,7 +20476,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -20486,7 +20490,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -20498,7 +20502,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -20520,7 +20524,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -20532,7 +20536,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -20544,7 +20548,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>8</v>
       </c>
@@ -20566,7 +20570,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -20578,7 +20582,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -20590,12 +20594,15 @@
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -20623,7 +20630,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20638,97 +20645,97 @@
       <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -20753,87 +20760,87 @@
       <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -20852,64 +20859,64 @@
       <selection activeCell="A17" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -20928,16 +20935,16 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.9140625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.875" customWidth="1"/>
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.375" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20948,7 +20955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -20959,7 +20966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -20967,12 +20974,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -20980,13 +20987,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -20994,13 +21001,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -21008,7 +21015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>28</v>
@@ -21017,7 +21024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -21025,17 +21032,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -21044,7 +21051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -21064,7 +21071,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21078,7 +21085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21095,7 +21102,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21109,7 +21116,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21125,7 +21132,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21141,7 +21148,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21157,7 +21164,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21171,7 +21178,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work/ファイル整理ツリー.xlsx
+++ b/Work/ファイル整理ツリー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-U2OC2JH\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB93FCEE-59FB-482D-B370-CC27E907F958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED7EFB8-F773-49D4-AD90-40A703A9AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3165" yWindow="0" windowWidth="16050" windowHeight="10920" tabRatio="799" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>Contoroller</t>
     <phoneticPr fontId="1"/>
@@ -20134,7 +20134,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20602,6 +20602,9 @@
         <v>73</v>
       </c>
       <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Work/ファイル整理ツリー.xlsx
+++ b/Work/ファイル整理ツリー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class.DESKTOP-U2OC2JH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\sakurara_other\pepe_other_file\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED7EFB8-F773-49D4-AD90-40A703A9AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577E826-D7D3-4812-895C-F95AC865D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="0" windowWidth="16050" windowHeight="10920" tabRatio="799" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="799" activeTab="6" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>Contoroller</t>
     <phoneticPr fontId="1"/>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EditCatBL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>Exe</t>
     </r>
@@ -344,6 +340,18 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doSelectOneCatInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EditCatOneBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exeSelectOneCatInfo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13903,60 +13911,6 @@
                 </a:fontRef>
               </xdr:style>
             </xdr:cxnSp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="19" name="テキスト ボックス 33">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEAF777-359D-338F-89D8-F4CA38AF59FE}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvSpPr txBox="1"/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="165253" y="837282"/>
-                  <a:ext cx="391795" cy="213360"/>
-                </a:xfrm>
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:ln w="6350">
-                  <a:noFill/>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:txBody>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                  <a:prstTxWarp prst="textNoShape">
-                    <a:avLst/>
-                  </a:prstTxWarp>
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="just"/>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="1100" b="1" kern="100">
-                      <a:effectLst/>
-                      <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                      <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <a:t>ID</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
-                    <a:effectLst/>
-                    <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-                    <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:endParaRPr>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
             <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
@@ -14095,7 +14049,31 @@
                       <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
                       <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <a:t>doSelectCatInfo</a:t>
+                    <a:t>doSelect</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+                      <a:effectLst/>
+                      <a:highlight>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:highlight>
+                      <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                      <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>One</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1050" kern="100">
+                      <a:effectLst/>
+                      <a:highlight>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:highlight>
+                      <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                      <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>CatInfo</a:t>
                   </a:r>
                   <a:r>
                     <a:rPr lang="en-US" sz="1050" kern="100">
@@ -15010,6 +14988,18 @@
                     </a:lnSpc>
                   </a:pPr>
                   <a:r>
+                    <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+                      <a:effectLst/>
+                      <a:highlight>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:highlight>
+                      <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                      <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>EditCat</a:t>
+                  </a:r>
+                  <a:r>
                     <a:rPr lang="en-US" sz="1050" kern="100">
                       <a:effectLst/>
                       <a:highlight>
@@ -15019,7 +15009,7 @@
                       <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
                       <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <a:t>ShowCatInfoBL</a:t>
+                    <a:t>BL</a:t>
                   </a:r>
                   <a:r>
                     <a:rPr lang="en-US" sz="850" kern="100">
@@ -15049,7 +15039,7 @@
                       <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
                       <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <a:t>executeSelectSurvey</a:t>
+                    <a:t>exeSelectOneCatInfo</a:t>
                   </a:r>
                   <a:r>
                     <a:rPr lang="ja-JP" sz="900" kern="100">
@@ -16458,6 +16448,60 @@
                 <a:effectLst/>
               </xdr:spPr>
             </xdr:cxnSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="51" name="テキスト ボックス 33">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2A8C72-9A52-833D-034C-87F6A1A9B5BC}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="144945" y="771653"/>
+                  <a:ext cx="466725" cy="247650"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="6350">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="just"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100" b="1" kern="100">
+                      <a:effectLst/>
+                      <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+                      <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                      <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>userId</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+                    <a:effectLst/>
+                    <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                    <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
           </xdr:grpSp>
         </xdr:grpSp>
       </xdr:grpSp>
@@ -20133,8 +20177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805AC35-603E-4391-87A6-FC4DA97BFC6E}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20144,7 +20188,7 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20347,7 +20391,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>38</v>
@@ -20411,7 +20455,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>39</v>
@@ -20459,7 +20503,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>61</v>
@@ -20468,10 +20512,10 @@
         <v>3</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
@@ -20485,10 +20529,12 @@
         <v>19</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
@@ -20507,19 +20553,19 @@
         <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
@@ -20553,19 +20599,19 @@
         <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
@@ -20599,13 +20645,13 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
         <v>73</v>
       </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -20613,7 +20659,7 @@
   <hyperlinks>
     <hyperlink ref="B2" location="login!A1" display="ログイン機能" xr:uid="{330B024C-2601-47EE-8363-139FC21DBB58}"/>
     <hyperlink ref="B5" location="user登録!A1" display="ユーザー新規登録" xr:uid="{9DD34F11-B4B5-4C24-9DE8-12BC86A665F4}"/>
-    <hyperlink ref="B9" location="My表示!A1" display="ユーザー情報編集" xr:uid="{7A873655-0A70-4158-B8B9-5E1C3DADE7BD}"/>
+    <hyperlink ref="B9" location="user編集!A1" display="ユーザー情報編集" xr:uid="{7A873655-0A70-4158-B8B9-5E1C3DADE7BD}"/>
     <hyperlink ref="B13" location="My表示!A1" display="マイページ表示機能" xr:uid="{02B00803-935F-4FA3-B698-F55A960B2917}"/>
     <hyperlink ref="B18" location="猫登録!A1" display="ネコちゃん登録機能" xr:uid="{ABBBAB3E-1C30-4BE7-BFDD-6D284987B3A1}"/>
     <hyperlink ref="B21" location="猫編集!A1" display="ネコちゃん編集機能" xr:uid="{DC6D7AB8-5DCF-4A92-965D-A0CC78407C81}"/>
@@ -21101,9 +21147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5895C592-00D4-42C8-9723-E9A74F7F42D1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -21147,9 +21191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B532659-9E4A-472F-83BD-A68C39CE5409}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/Work/ファイル整理ツリー.xlsx
+++ b/Work/ファイル整理ツリー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\sakurara_other\pepe_other_file\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577E826-D7D3-4812-895C-F95AC865D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A965FFC-5FA0-4CA9-874A-AF92E68663A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="799" activeTab="6" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="799" xr2:uid="{AF130286-64E7-4C6B-84DD-C9CC3619F221}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="8" r:id="rId1"/>
@@ -20177,7 +20177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4805AC35-603E-4391-87A6-FC4DA97BFC6E}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -21191,7 +21191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B532659-9E4A-472F-83BD-A68C39CE5409}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
